--- a/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.1/avg_0.003_scores.xlsx
@@ -97,16 +97,16 @@
     <t>dear</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1120,25 +1120,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.6609442060085837</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1146,25 +1146,25 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.6595744680851063</v>
+        <v>0.6534653465346535</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1172,25 +1172,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.6534653465346535</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L21">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1198,13 +1198,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.647887323943662</v>
+        <v>0.6443514644351465</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="M22">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1302,25 +1302,25 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.5487804878048781</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L26">
         <v>180</v>
       </c>
       <c r="M26">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="10:17">
